--- a/MassBays-Shiny/EDA Data/EDA2Redo_TH_7-15-2020.xlsx
+++ b/MassBays-Shiny/EDA Data/EDA2Redo_TH_7-15-2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Dropbox/EPA BCG/7 NE ESTUARIES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chipheil/Dropbox/MA-Bays-Shiny/MassBays-Shiny/EDA Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EF21B7-1219-0648-9CFC-252245AAAD89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C740B4E-6724-E143-AF6C-2368AB10D1BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7580" yWindow="2520" windowWidth="35680" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,8 +689,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1049,10 +1050,14 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:Q1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="18" max="22" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1070,7 +1075,7 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -1106,19 +1111,19 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1135,7 +1140,7 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>23.059538509999999</v>
       </c>
       <c r="G2">
@@ -1171,19 +1176,19 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>86.308474489999995</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>54.415946239999997</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>4.8021359769999998</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
         <v>1.7736660849999999</v>
       </c>
     </row>
@@ -1203,7 +1208,7 @@
       <c r="E3">
         <v>2.1749194410000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>109.7970487</v>
       </c>
       <c r="G3">
@@ -1239,19 +1244,19 @@
       <c r="Q3">
         <v>30.666096920000001</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>81.685286439999999</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>32.100445919999999</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>22.15043365</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
         <v>16.980281590000001</v>
       </c>
     </row>
@@ -1271,7 +1276,7 @@
       <c r="E4">
         <v>0.16673706099999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>126.84211259999999</v>
       </c>
       <c r="G4">
@@ -1307,19 +1312,19 @@
       <c r="Q4">
         <v>77.463335639999997</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>98.844899049999995</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>17.802286840000001</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>3.5963213550000002</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
         <v>0.12249252400000001</v>
       </c>
     </row>
@@ -1339,7 +1344,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>80.687363759999997</v>
       </c>
       <c r="G5">
@@ -1375,19 +1380,19 @@
       <c r="Q5">
         <v>27.155788489999999</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>100</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>16.674886969999999</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>4.9267232910000001</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
         <v>0.74848478900000004</v>
       </c>
     </row>
@@ -1407,7 +1412,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>87.496775940000006</v>
       </c>
       <c r="G6">
@@ -1443,19 +1448,19 @@
       <c r="Q6">
         <v>26.01940664</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>82.837531190000007</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>18.118298970000001</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="1">
         <v>36.221678670000003</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
         <v>4.186212759</v>
       </c>
     </row>
@@ -1475,7 +1480,7 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>186.12309189999999</v>
       </c>
       <c r="G7">
@@ -1511,19 +1516,19 @@
       <c r="Q7">
         <v>27.08733599</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>85.484283439999999</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>60.62095231</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>24.166743530000002</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
         <v>2.0901399180000002</v>
       </c>
     </row>
@@ -1543,7 +1548,7 @@
       <c r="E8">
         <v>0.87778038599999997</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>142.65724950000001</v>
       </c>
       <c r="G8">
@@ -1579,19 +1584,19 @@
       <c r="Q8">
         <v>4.02944177</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>91.527549230000005</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>23.85823946</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <v>34.97578712</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
         <v>0.41445602100000001</v>
       </c>
     </row>
@@ -1611,7 +1616,7 @@
       <c r="E9">
         <v>13.211619280000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>59.930399999999999</v>
       </c>
       <c r="G9">
@@ -1647,19 +1652,19 @@
       <c r="Q9">
         <v>16.625456499999999</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>85.194718440000003</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="1">
         <v>17.989021040000001</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="1">
         <v>68.896380109999996</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="1">
         <v>0.73249344299999997</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="1">
         <v>24.16317849</v>
       </c>
     </row>
@@ -1679,7 +1684,7 @@
       <c r="E10">
         <v>5.0654406989999998</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>9.7083613110000009</v>
       </c>
       <c r="G10">
@@ -1715,19 +1720,19 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
         <v>0.77444787900000001</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1747,7 +1752,7 @@
       <c r="E11">
         <v>5.4467715449999998</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>21.604036090000001</v>
       </c>
       <c r="G11">
@@ -1783,19 +1788,19 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>59.786111839999997</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>24.821448100000001</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="1">
         <v>3.3867739019999998</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <v>5.9159756090000002</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="1">
         <v>1.4822632000000001E-2</v>
       </c>
     </row>
@@ -1815,7 +1820,7 @@
       <c r="E12">
         <v>21.789358</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>118.977377</v>
       </c>
       <c r="G12">
@@ -1851,19 +1856,19 @@
       <c r="Q12">
         <v>63.152611909999997</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>40.29155068</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <v>8.8230946760000002</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>9.4606642250000004</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="1">
         <v>11.636158010000001</v>
       </c>
     </row>
@@ -1883,7 +1888,7 @@
       <c r="E13">
         <v>4.051695413</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>88.093150030000004</v>
       </c>
       <c r="G13">
@@ -1919,19 +1924,19 @@
       <c r="Q13">
         <v>96.515061529999997</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>95.201058509999996</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>18.179157620000002</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="1">
         <v>26.760666239999999</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="1">
         <v>11.18539616</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="1">
         <v>10.07387714</v>
       </c>
     </row>
@@ -1951,7 +1956,7 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>38.053661699999999</v>
       </c>
       <c r="G14">
@@ -1987,19 +1992,19 @@
       <c r="Q14">
         <v>45.611949080000002</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>82.454138549999996</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>32.894778619999997</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="1">
         <v>30.03200622</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>3.1233631960000001</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="1">
         <v>33.003470989999997</v>
       </c>
     </row>
@@ -2019,7 +2024,7 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>79.455244129999997</v>
       </c>
       <c r="G15">
@@ -2055,19 +2060,19 @@
       <c r="Q15">
         <v>37.249599529999998</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>80.444164869999994</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="1">
         <v>10.184829349999999</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="1">
         <v>3.1155800920000001</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>2.0508937390000002</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <v>24.310172349999998</v>
       </c>
     </row>
@@ -2087,7 +2092,7 @@
       <c r="E16">
         <v>0.89018500599999995</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>46.265280760000003</v>
       </c>
       <c r="G16">
@@ -2123,19 +2128,19 @@
       <c r="Q16">
         <v>48.096003879999998</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>73.817001529999999</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="1">
         <v>18.264306919999999</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="1">
         <v>34.633919059999997</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
         <v>11.964091659999999</v>
       </c>
     </row>
@@ -2155,7 +2160,7 @@
       <c r="E17">
         <v>0.51987335000000001</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>22.74462114</v>
       </c>
       <c r="G17">
@@ -2191,19 +2196,19 @@
       <c r="Q17">
         <v>9.5258917400000005</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <v>65.235885100000004</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="1">
         <v>21.622263570000001</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="1">
         <v>4.1865907599999996</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
         <v>2.8518550980000001</v>
       </c>
     </row>
@@ -2223,7 +2228,7 @@
       <c r="E18">
         <v>6.7033224730000001</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>107.7217218</v>
       </c>
       <c r="G18">
@@ -2259,19 +2264,19 @@
       <c r="Q18">
         <v>42.833330889999999</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>49.007491649999999</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="1">
         <v>20.985700550000001</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="1">
         <v>33.156911569999998</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="1">
         <v>3.3323349000000002E-2</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="1">
         <v>13.36837863</v>
       </c>
     </row>
@@ -2291,7 +2296,7 @@
       <c r="E19">
         <v>3.7871236399999999</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>25.535597899999999</v>
       </c>
       <c r="G19">
@@ -2327,19 +2332,19 @@
       <c r="Q19">
         <v>47.625348299999999</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="1">
         <v>89.615576649999994</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <v>13.679360450000001</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="1">
         <v>43.63765248</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
         <v>0.32026411500000002</v>
       </c>
     </row>
@@ -2359,7 +2364,7 @@
       <c r="E20">
         <v>6.0457333550000003</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>13.987455560000001</v>
       </c>
       <c r="G20">
@@ -2395,19 +2400,19 @@
       <c r="Q20">
         <v>58.06537514</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="1">
         <v>51.850669449999998</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="1">
         <v>18.836220910000002</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="1">
         <v>18.08532026</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
         <v>22.46862161</v>
       </c>
     </row>
@@ -2427,7 +2432,7 @@
       <c r="E21">
         <v>9.5157075330000005</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>44.506614829999997</v>
       </c>
       <c r="G21">
@@ -2463,19 +2468,19 @@
       <c r="Q21">
         <v>42.388355429999997</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>76.395308920000005</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <v>24.976910849999999</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="1">
         <v>17.467998739999999</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="1">
         <v>8.287122664</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="1">
         <v>19.056726439999998</v>
       </c>
     </row>
@@ -2495,7 +2500,7 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>12.915027650000001</v>
       </c>
       <c r="G22">
@@ -2531,19 +2536,19 @@
       <c r="Q22">
         <v>53.576623230000003</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>75.774716389999995</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>23.39219198</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="1">
         <v>6.1371855440000003</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="1">
         <v>2.3670536950000001</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="1">
         <v>13.95758172</v>
       </c>
     </row>
@@ -2596,19 +2601,19 @@
       <c r="Q23">
         <v>84.410106859999999</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="1">
         <v>95.118020130000005</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="1">
         <v>20.296940360000001</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="1">
         <v>9.23</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
         <v>9.23</v>
       </c>
     </row>
@@ -2628,7 +2633,7 @@
       <c r="E24">
         <v>3.954001318</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>67.664895659999999</v>
       </c>
       <c r="G24">
@@ -2664,19 +2669,19 @@
       <c r="Q24">
         <v>0.42322136300000002</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="1">
         <v>72.362306509999996</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="1">
         <v>32.137277529999999</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="1">
         <v>78.300291110000003</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="1">
         <v>15.4277181</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="1">
         <v>5.4462251290000001</v>
       </c>
     </row>
@@ -2696,7 +2701,7 @@
       <c r="E25">
         <v>1.5730180220000001</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>26.273837910000001</v>
       </c>
       <c r="G25">
@@ -2732,19 +2737,19 @@
       <c r="Q25">
         <v>2.4467173359999999</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>94.986919369999995</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="1">
         <v>12.28635592</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="1">
         <v>30.172952509999998</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="1">
         <v>12.576435740000001</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="1">
         <v>0.97418137999999999</v>
       </c>
     </row>
@@ -2764,7 +2769,7 @@
       <c r="E26">
         <v>0.38217756200000003</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>22.51287554</v>
       </c>
       <c r="G26">
@@ -2800,19 +2805,19 @@
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>36.792329580000001</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>7.1466361550000004</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="1">
         <v>49.06633428</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="1">
         <v>19.4208529</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="1">
         <v>0.232791727</v>
       </c>
     </row>
@@ -2832,7 +2837,7 @@
       <c r="E27">
         <v>1.0906630530000001</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>4.6388640240000001</v>
       </c>
       <c r="G27">
@@ -2868,19 +2873,19 @@
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>38.029310479999999</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <v>63.041519880000003</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="1">
         <v>25.436556060000001</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="1">
         <v>13.650900480000001</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="1">
         <v>321.73365819999998</v>
       </c>
     </row>
@@ -2900,7 +2905,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>26.254868349999999</v>
       </c>
       <c r="G28">
@@ -2936,19 +2941,19 @@
       <c r="Q28">
         <v>2.1964710969999999</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>80.345844560000003</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>30.219448790000001</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="1">
         <v>72.651802500000002</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="1">
         <v>0.22864198599999999</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="1">
         <v>2.9676028470000002</v>
       </c>
     </row>
@@ -2968,7 +2973,7 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>18.96756066</v>
       </c>
       <c r="G29">
@@ -3004,19 +3009,19 @@
       <c r="Q29">
         <v>48.355032340000001</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>78.839539470000005</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <v>27.436513290000001</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="1">
         <v>77.731813880000004</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
         <v>0.56318484599999996</v>
       </c>
     </row>
@@ -3036,7 +3041,7 @@
       <c r="E30">
         <v>0.557810739</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>145.61617799999999</v>
       </c>
       <c r="G30">
@@ -3072,19 +3077,19 @@
       <c r="Q30">
         <v>1.090646338</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>82.337952990000005</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>33.057643380000002</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="1">
         <v>65.125881969999995</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
         <v>18.647178780000001</v>
       </c>
     </row>
@@ -3104,7 +3109,7 @@
       <c r="E31">
         <v>0.99578840499999999</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>20.98234278</v>
       </c>
       <c r="G31">
@@ -3140,19 +3145,19 @@
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1">
         <v>96.28533496</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="1">
         <v>52.735237470000001</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="1">
         <v>65.738210570000007</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="1">
         <v>3.694226944</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="1">
         <v>25.809797469999999</v>
       </c>
     </row>
@@ -3172,7 +3177,7 @@
       <c r="E32">
         <v>6.1566692999999999E-2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>4.510229431</v>
       </c>
       <c r="G32">
@@ -3208,19 +3213,19 @@
       <c r="Q32">
         <v>4.973117813</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="1">
         <v>100</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="1">
         <v>22.095885490000001</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="1">
         <v>61.229520229999999</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
         <v>2.2025987050000002</v>
       </c>
     </row>
@@ -3240,7 +3245,7 @@
       <c r="E33">
         <v>2.5749633740000002</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>5.5839251409999999</v>
       </c>
       <c r="G33">
@@ -3276,19 +3281,19 @@
       <c r="Q33">
         <v>0.45155463800000001</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="1">
         <v>77.408132649999999</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="1">
         <v>97.361747120000004</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="1">
         <v>100</v>
       </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
         <v>49.43188318</v>
       </c>
     </row>
@@ -3308,7 +3313,7 @@
       <c r="E34">
         <v>1.584669509</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>4.4730805489999996</v>
       </c>
       <c r="G34">
@@ -3344,19 +3349,19 @@
       <c r="Q34">
         <v>18.957597509999999</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="1">
         <v>68.193213209999996</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="1">
         <v>38.604277330000002</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="1">
         <v>97.444459499999994</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="1">
         <v>1.915892213</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="1">
         <v>42.897196469999997</v>
       </c>
     </row>
@@ -3376,7 +3381,7 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>8.255382097</v>
       </c>
       <c r="G35">
@@ -3412,19 +3417,19 @@
       <c r="Q35">
         <v>3.2423180000000001E-3</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="1">
         <v>58.880917760000003</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="1">
         <v>56.443940130000001</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="1">
         <v>93.112519030000001</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="1">
         <v>0.87831769199999998</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="1">
         <v>31.579387950000001</v>
       </c>
     </row>
@@ -3444,7 +3449,7 @@
       <c r="E36">
         <v>0.16796713999999999</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>8.7596568819999998</v>
       </c>
       <c r="G36">
@@ -3480,19 +3485,19 @@
       <c r="Q36">
         <v>0.26900331399999999</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="1">
         <v>93.788736869999994</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="1">
         <v>39.223971200000001</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="1">
         <v>65.035293530000004</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
         <v>40.944187139999997</v>
       </c>
     </row>
@@ -3512,7 +3517,7 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>4.2367334960000003</v>
       </c>
       <c r="G37">
@@ -3548,19 +3553,19 @@
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="1">
         <v>84.065373649999998</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="1">
         <v>81.014111869999994</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="1">
         <v>97.700204580000005</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="1">
         <v>2.5066082060000001</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="1">
         <v>39.157924629999997</v>
       </c>
     </row>
@@ -3580,7 +3585,7 @@
       <c r="E38">
         <v>9.8879926630000003</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>65.861428970000006</v>
       </c>
       <c r="G38">
@@ -3616,19 +3621,19 @@
       <c r="Q38">
         <v>1.011742068</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="1">
         <v>71.453473900000006</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="1">
         <v>34.416683419999998</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="1">
         <v>89.521197400000005</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="1">
         <v>15.13538681</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="1">
         <v>15.69696214</v>
       </c>
     </row>
@@ -3648,7 +3653,7 @@
       <c r="E39">
         <v>2.232356389</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>12.93190381</v>
       </c>
       <c r="G39">
@@ -3684,19 +3689,19 @@
       <c r="Q39">
         <v>36.110182590000001</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="1">
         <v>62.06253512</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="1">
         <v>39.055122500000003</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="1">
         <v>93.192210579999994</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="1">
         <v>27.54308863</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="1">
         <v>1.2264912349999999</v>
       </c>
     </row>
@@ -3716,7 +3721,7 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>26.454184430000002</v>
       </c>
       <c r="G40">
@@ -3752,19 +3757,19 @@
       <c r="Q40">
         <v>0</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="1">
         <v>34.347853000000001</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="1">
         <v>44.138825179999998</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="1">
         <v>54.03068485</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="1">
         <v>27.437894010000001</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="1">
         <v>8.9150113750000006</v>
       </c>
     </row>
